--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Icam5</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.41309827576446</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H2">
-        <v>0.41309827576446</v>
+        <v>1.977781</v>
       </c>
       <c r="I2">
-        <v>0.04759128462038156</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J2">
-        <v>0.04759128462038156</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>29.5022967006222</v>
+        <v>0.1562936666666667</v>
       </c>
       <c r="N2">
-        <v>29.5022967006222</v>
+        <v>0.468881</v>
       </c>
       <c r="O2">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="P2">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="Q2">
-        <v>12.18734789811855</v>
+        <v>0.1030382147845555</v>
       </c>
       <c r="R2">
-        <v>12.18734789811855</v>
+        <v>0.9273439330609999</v>
       </c>
       <c r="S2">
-        <v>0.01331359028850255</v>
+        <v>9.221780573442612E-05</v>
       </c>
       <c r="T2">
-        <v>0.01331359028850255</v>
+        <v>9.221780573442611E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.41309827576446</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H3">
-        <v>0.41309827576446</v>
+        <v>1.977781</v>
       </c>
       <c r="I3">
-        <v>0.04759128462038156</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J3">
-        <v>0.04759128462038156</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>23.4844501970959</v>
+        <v>0.05738533333333334</v>
       </c>
       <c r="N3">
-        <v>23.4844501970959</v>
+        <v>0.172156</v>
       </c>
       <c r="O3">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340919</v>
       </c>
       <c r="P3">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340918</v>
       </c>
       <c r="Q3">
-        <v>9.701385883696648</v>
+        <v>0.03783187398177778</v>
       </c>
       <c r="R3">
-        <v>9.701385883696648</v>
+        <v>0.340486865836</v>
       </c>
       <c r="S3">
-        <v>0.01059789857202148</v>
+        <v>3.385901447065644E-05</v>
       </c>
       <c r="T3">
-        <v>0.01059789857202148</v>
+        <v>3.385901447065644E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,619 +652,2107 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.41309827576446</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H4">
-        <v>0.41309827576446</v>
+        <v>1.977781</v>
       </c>
       <c r="I4">
-        <v>0.04759128462038156</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J4">
-        <v>0.04759128462038156</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.4733257655346</v>
+        <v>37.765109</v>
       </c>
       <c r="N4">
-        <v>52.4733257655346</v>
+        <v>113.295327</v>
       </c>
       <c r="O4">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114046</v>
       </c>
       <c r="P4">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114045</v>
       </c>
       <c r="Q4">
-        <v>21.67664039736916</v>
+        <v>24.89703834770967</v>
       </c>
       <c r="R4">
-        <v>21.67664039736916</v>
+        <v>224.073345129387</v>
       </c>
       <c r="S4">
-        <v>0.02367979575985753</v>
+        <v>0.02228251188660723</v>
       </c>
       <c r="T4">
-        <v>0.02367979575985753</v>
+        <v>0.02228251188660722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.512472104703855</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H5">
-        <v>0.512472104703855</v>
+        <v>1.977781</v>
       </c>
       <c r="I5">
-        <v>0.05903971821192823</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J5">
-        <v>0.05903971821192823</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.5022967006222</v>
+        <v>23.90063033333334</v>
       </c>
       <c r="N5">
-        <v>29.5022967006222</v>
+        <v>71.701891</v>
       </c>
       <c r="O5">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="P5">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="Q5">
-        <v>15.11910408376546</v>
+        <v>15.75673752043011</v>
       </c>
       <c r="R5">
-        <v>15.11910408376546</v>
+        <v>141.810637683871</v>
       </c>
       <c r="S5">
-        <v>0.01651627236566814</v>
+        <v>0.01410206652653658</v>
       </c>
       <c r="T5">
-        <v>0.01651627236566814</v>
+        <v>0.01410206652653658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.512472104703855</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H6">
-        <v>0.512472104703855</v>
+        <v>1.977781</v>
       </c>
       <c r="I6">
-        <v>0.05903971821192823</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J6">
-        <v>0.05903971821192823</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.4844501970959</v>
+        <v>56.08363733333334</v>
       </c>
       <c r="N6">
-        <v>23.4844501970959</v>
+        <v>168.250912</v>
       </c>
       <c r="O6">
-        <v>0.2226857008916039</v>
+        <v>0.4744086217013212</v>
       </c>
       <c r="P6">
-        <v>0.2226857008916039</v>
+        <v>0.474408621701321</v>
       </c>
       <c r="Q6">
-        <v>12.0351256203186</v>
+        <v>36.97371744291911</v>
       </c>
       <c r="R6">
-        <v>12.0351256203186</v>
+        <v>332.763456986272</v>
       </c>
       <c r="S6">
-        <v>0.01314730103046603</v>
+        <v>0.03309097599914696</v>
       </c>
       <c r="T6">
-        <v>0.01314730103046603</v>
+        <v>0.03309097599914695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.512472104703855</v>
+        <v>0.6592603333333333</v>
       </c>
       <c r="H7">
-        <v>0.512472104703855</v>
+        <v>1.977781</v>
       </c>
       <c r="I7">
-        <v>0.05903971821192823</v>
+        <v>0.06975205442193759</v>
       </c>
       <c r="J7">
-        <v>0.05903971821192823</v>
+        <v>0.0697520544219376</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>52.4733257655346</v>
+        <v>0.254942</v>
       </c>
       <c r="N7">
-        <v>52.4733257655346</v>
+        <v>0.764826</v>
       </c>
       <c r="O7">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="P7">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="Q7">
-        <v>26.89111569587454</v>
+        <v>0.1680731479006667</v>
       </c>
       <c r="R7">
-        <v>26.89111569587454</v>
+        <v>1.512658331106</v>
       </c>
       <c r="S7">
-        <v>0.02937614481579406</v>
+        <v>0.0001504231894417522</v>
       </c>
       <c r="T7">
-        <v>0.02937614481579406</v>
+        <v>0.0001504231894417521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.590914547938816</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H8">
-        <v>0.590914547938816</v>
+        <v>0.692693</v>
       </c>
       <c r="I8">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649224</v>
       </c>
       <c r="J8">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649225</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>29.5022967006222</v>
+        <v>0.1562936666666667</v>
       </c>
       <c r="N8">
-        <v>29.5022967006222</v>
+        <v>0.468881</v>
       </c>
       <c r="O8">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="P8">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="Q8">
-        <v>17.43333631800499</v>
+        <v>0.03608784294811111</v>
       </c>
       <c r="R8">
-        <v>17.43333631800499</v>
+        <v>0.324790586533</v>
       </c>
       <c r="S8">
-        <v>0.01904436461811525</v>
+        <v>3.229813033272988E-05</v>
       </c>
       <c r="T8">
-        <v>0.01904436461811525</v>
+        <v>3.229813033272987E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.590914547938816</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H9">
-        <v>0.590914547938816</v>
+        <v>0.692693</v>
       </c>
       <c r="I9">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649224</v>
       </c>
       <c r="J9">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649225</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.4844501970959</v>
+        <v>0.05738533333333334</v>
       </c>
       <c r="N9">
-        <v>23.4844501970959</v>
+        <v>0.172156</v>
       </c>
       <c r="O9">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340919</v>
       </c>
       <c r="P9">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340918</v>
       </c>
       <c r="Q9">
-        <v>13.87730327180856</v>
+        <v>0.01325013956755556</v>
       </c>
       <c r="R9">
-        <v>13.87730327180856</v>
+        <v>0.119251256108</v>
       </c>
       <c r="S9">
-        <v>0.01515971576545193</v>
+        <v>1.185869533114254E-05</v>
       </c>
       <c r="T9">
-        <v>0.01515971576545193</v>
+        <v>1.185869533114254E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.590914547938816</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H10">
-        <v>0.590914547938816</v>
+        <v>0.692693</v>
       </c>
       <c r="I10">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649224</v>
       </c>
       <c r="J10">
-        <v>0.068076736426068</v>
+        <v>0.02442978258649225</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.4733257655346</v>
+        <v>37.765109</v>
       </c>
       <c r="N10">
-        <v>52.4733257655346</v>
+        <v>113.295327</v>
       </c>
       <c r="O10">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114046</v>
       </c>
       <c r="P10">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114045</v>
       </c>
       <c r="Q10">
-        <v>31.00725157358711</v>
+        <v>8.719875549512334</v>
       </c>
       <c r="R10">
-        <v>31.00725157358711</v>
+        <v>78.478879945611</v>
       </c>
       <c r="S10">
-        <v>0.03387265604250082</v>
+        <v>0.007804170434577751</v>
       </c>
       <c r="T10">
-        <v>0.03387265604250082</v>
+        <v>0.007804170434577751</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>7.16363957463151</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H11">
-        <v>7.16363957463151</v>
+        <v>0.692693</v>
       </c>
       <c r="I11">
-        <v>0.8252922607416222</v>
+        <v>0.02442978258649224</v>
       </c>
       <c r="J11">
-        <v>0.8252922607416222</v>
+        <v>0.02442978258649225</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5022967006222</v>
+        <v>23.90063033333334</v>
       </c>
       <c r="N11">
-        <v>29.5022967006222</v>
+        <v>71.701891</v>
       </c>
       <c r="O11">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="P11">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="Q11">
-        <v>211.3438201870978</v>
+        <v>5.518599775829223</v>
       </c>
       <c r="R11">
-        <v>211.3438201870978</v>
+        <v>49.667397982463</v>
       </c>
       <c r="S11">
-        <v>0.2308742685857318</v>
+        <v>0.004939072004668971</v>
       </c>
       <c r="T11">
-        <v>0.2308742685857318</v>
+        <v>0.00493907200466897</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>7.16363957463151</v>
+        <v>0.2308976666666667</v>
       </c>
       <c r="H12">
-        <v>7.16363957463151</v>
+        <v>0.692693</v>
       </c>
       <c r="I12">
-        <v>0.8252922607416222</v>
+        <v>0.02442978258649224</v>
       </c>
       <c r="J12">
-        <v>0.8252922607416222</v>
+        <v>0.02442978258649225</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.4844501970959</v>
+        <v>56.08363733333334</v>
       </c>
       <c r="N12">
-        <v>23.4844501970959</v>
+        <v>168.250912</v>
       </c>
       <c r="O12">
-        <v>0.2226857008916039</v>
+        <v>0.4744086217013212</v>
       </c>
       <c r="P12">
-        <v>0.2226857008916039</v>
+        <v>0.474408621701321</v>
       </c>
       <c r="Q12">
-        <v>168.234136820379</v>
+        <v>12.94958099844622</v>
       </c>
       <c r="R12">
-        <v>168.234136820379</v>
+        <v>116.546228986016</v>
       </c>
       <c r="S12">
-        <v>0.1837807855236644</v>
+        <v>0.01158969948532072</v>
       </c>
       <c r="T12">
-        <v>0.1837807855236644</v>
+        <v>0.01158969948532072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2308976666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.692693</v>
+      </c>
+      <c r="I13">
+        <v>0.02442978258649224</v>
+      </c>
+      <c r="J13">
+        <v>0.02442978258649225</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.254942</v>
+      </c>
+      <c r="N13">
+        <v>0.764826</v>
+      </c>
+      <c r="O13">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P13">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q13">
+        <v>0.05886551293533333</v>
+      </c>
+      <c r="R13">
+        <v>0.529789616418</v>
+      </c>
+      <c r="S13">
+        <v>5.26838362609286E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.268383626092859E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5331756666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.599527</v>
+      </c>
+      <c r="I14">
+        <v>0.05641185467620458</v>
+      </c>
+      <c r="J14">
+        <v>0.05641185467620459</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.468881</v>
+      </c>
+      <c r="O14">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P14">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q14">
+        <v>0.08333197992077776</v>
+      </c>
+      <c r="R14">
+        <v>0.749987819287</v>
+      </c>
+      <c r="S14">
+        <v>7.458099261392916E-05</v>
+      </c>
+      <c r="T14">
+        <v>7.458099261392914E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5331756666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.599527</v>
+      </c>
+      <c r="I15">
+        <v>0.05641185467620458</v>
+      </c>
+      <c r="J15">
+        <v>0.05641185467620459</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.172156</v>
+      </c>
+      <c r="O15">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P15">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q15">
+        <v>0.03059646335688889</v>
+      </c>
+      <c r="R15">
+        <v>0.275368170212</v>
+      </c>
+      <c r="S15">
+        <v>2.738342002436351E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.738342002436351E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5331756666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.599527</v>
+      </c>
+      <c r="I16">
+        <v>0.05641185467620458</v>
+      </c>
+      <c r="J16">
+        <v>0.05641185467620459</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>37.765109</v>
+      </c>
+      <c r="N16">
+        <v>113.295327</v>
+      </c>
+      <c r="O16">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P16">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q16">
+        <v>20.13543716781433</v>
+      </c>
+      <c r="R16">
+        <v>181.218934510329</v>
+      </c>
+      <c r="S16">
+        <v>0.01802094336554411</v>
+      </c>
+      <c r="T16">
+        <v>0.01802094336554411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5331756666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.599527</v>
+      </c>
+      <c r="I17">
+        <v>0.05641185467620458</v>
+      </c>
+      <c r="J17">
+        <v>0.05641185467620459</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N17">
+        <v>71.701891</v>
+      </c>
+      <c r="O17">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P17">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q17">
+        <v>12.74323451172856</v>
+      </c>
+      <c r="R17">
+        <v>114.689110605557</v>
+      </c>
+      <c r="S17">
+        <v>0.01140502217636405</v>
+      </c>
+      <c r="T17">
+        <v>0.01140502217636405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5331756666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.599527</v>
+      </c>
+      <c r="I18">
+        <v>0.05641185467620458</v>
+      </c>
+      <c r="J18">
+        <v>0.05641185467620459</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N18">
+        <v>168.250912</v>
+      </c>
+      <c r="O18">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P18">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q18">
+        <v>29.90243072429155</v>
+      </c>
+      <c r="R18">
+        <v>269.121876518624</v>
+      </c>
+      <c r="S18">
+        <v>0.02676227022455344</v>
+      </c>
+      <c r="T18">
+        <v>0.02676227022455344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5331756666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.599527</v>
+      </c>
+      <c r="I19">
+        <v>0.05641185467620458</v>
+      </c>
+      <c r="J19">
+        <v>0.05641185467620459</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.254942</v>
+      </c>
+      <c r="N19">
+        <v>0.764826</v>
+      </c>
+      <c r="O19">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P19">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q19">
+        <v>0.1359288708113333</v>
+      </c>
+      <c r="R19">
+        <v>1.223359837302</v>
+      </c>
+      <c r="S19">
+        <v>0.0001216544971046832</v>
+      </c>
+      <c r="T19">
+        <v>0.0001216544971046832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.16363957463151</v>
-      </c>
-      <c r="H13">
-        <v>7.16363957463151</v>
-      </c>
-      <c r="I13">
-        <v>0.8252922607416222</v>
-      </c>
-      <c r="J13">
-        <v>0.8252922607416222</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>52.4733257655346</v>
-      </c>
-      <c r="N13">
-        <v>52.4733257655346</v>
-      </c>
-      <c r="O13">
-        <v>0.4975658032503784</v>
-      </c>
-      <c r="P13">
-        <v>0.4975658032503784</v>
-      </c>
-      <c r="Q13">
-        <v>375.8999930665149</v>
-      </c>
-      <c r="R13">
-        <v>375.8999930665149</v>
-      </c>
-      <c r="S13">
-        <v>0.410637206632226</v>
-      </c>
-      <c r="T13">
-        <v>0.410637206632226</v>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.616884</v>
+      </c>
+      <c r="H20">
+        <v>1.850652</v>
+      </c>
+      <c r="I20">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J20">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.468881</v>
+      </c>
+      <c r="O20">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P20">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q20">
+        <v>0.09641506226799999</v>
+      </c>
+      <c r="R20">
+        <v>0.867735560412</v>
+      </c>
+      <c r="S20">
+        <v>8.629017399703362E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.629017399703362E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.616884</v>
+      </c>
+      <c r="H21">
+        <v>1.850652</v>
+      </c>
+      <c r="I21">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J21">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.172156</v>
+      </c>
+      <c r="O21">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P21">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q21">
+        <v>0.035400093968</v>
+      </c>
+      <c r="R21">
+        <v>0.318600845712</v>
+      </c>
+      <c r="S21">
+        <v>3.168260431673137E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.168260431673137E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.616884</v>
+      </c>
+      <c r="H22">
+        <v>1.850652</v>
+      </c>
+      <c r="I22">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J22">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>37.765109</v>
+      </c>
+      <c r="N22">
+        <v>113.295327</v>
+      </c>
+      <c r="O22">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P22">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q22">
+        <v>23.296691500356</v>
+      </c>
+      <c r="R22">
+        <v>209.670223503204</v>
+      </c>
+      <c r="S22">
+        <v>0.02085022314804998</v>
+      </c>
+      <c r="T22">
+        <v>0.02085022314804998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.616884</v>
+      </c>
+      <c r="H23">
+        <v>1.850652</v>
+      </c>
+      <c r="I23">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J23">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N23">
+        <v>71.701891</v>
+      </c>
+      <c r="O23">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P23">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q23">
+        <v>14.743916442548</v>
+      </c>
+      <c r="R23">
+        <v>132.695247982932</v>
+      </c>
+      <c r="S23">
+        <v>0.01319560538880087</v>
+      </c>
+      <c r="T23">
+        <v>0.01319560538880087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.616884</v>
+      </c>
+      <c r="H24">
+        <v>1.850652</v>
+      </c>
+      <c r="I24">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J24">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N24">
+        <v>168.250912</v>
+      </c>
+      <c r="O24">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P24">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q24">
+        <v>34.597098532736</v>
+      </c>
+      <c r="R24">
+        <v>311.373886794624</v>
+      </c>
+      <c r="S24">
+        <v>0.03096393428532953</v>
+      </c>
+      <c r="T24">
+        <v>0.03096393428532952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.616884</v>
+      </c>
+      <c r="H25">
+        <v>1.850652</v>
+      </c>
+      <c r="I25">
+        <v>0.06526848979743846</v>
+      </c>
+      <c r="J25">
+        <v>0.06526848979743848</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.254942</v>
+      </c>
+      <c r="N25">
+        <v>0.764826</v>
+      </c>
+      <c r="O25">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P25">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q25">
+        <v>0.157269640728</v>
+      </c>
+      <c r="R25">
+        <v>1.415426766552</v>
+      </c>
+      <c r="S25">
+        <v>0.0001407541969443318</v>
+      </c>
+      <c r="T25">
+        <v>0.0001407541969443318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.376235</v>
+      </c>
+      <c r="H26">
+        <v>22.128705</v>
+      </c>
+      <c r="I26">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J26">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.468881</v>
+      </c>
+      <c r="O26">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P26">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q26">
+        <v>1.152858814345</v>
+      </c>
+      <c r="R26">
+        <v>10.375729329105</v>
+      </c>
+      <c r="S26">
+        <v>0.001031793013910248</v>
+      </c>
+      <c r="T26">
+        <v>0.001031793013910248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.376235</v>
+      </c>
+      <c r="H27">
+        <v>22.128705</v>
+      </c>
+      <c r="I27">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J27">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N27">
+        <v>0.172156</v>
+      </c>
+      <c r="O27">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P27">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q27">
+        <v>0.4232877042200001</v>
+      </c>
+      <c r="R27">
+        <v>3.80958933798</v>
+      </c>
+      <c r="S27">
+        <v>0.0003788367583730897</v>
+      </c>
+      <c r="T27">
+        <v>0.0003788367583730896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.376235</v>
+      </c>
+      <c r="H28">
+        <v>22.128705</v>
+      </c>
+      <c r="I28">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J28">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>37.765109</v>
+      </c>
+      <c r="N28">
+        <v>113.295327</v>
+      </c>
+      <c r="O28">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P28">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q28">
+        <v>278.564318784615</v>
+      </c>
+      <c r="R28">
+        <v>2507.078869061535</v>
+      </c>
+      <c r="S28">
+        <v>0.2493112898737144</v>
+      </c>
+      <c r="T28">
+        <v>0.2493112898737144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.376235</v>
+      </c>
+      <c r="H29">
+        <v>22.128705</v>
+      </c>
+      <c r="I29">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J29">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N29">
+        <v>71.701891</v>
+      </c>
+      <c r="O29">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P29">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q29">
+        <v>176.296665986795</v>
+      </c>
+      <c r="R29">
+        <v>1586.669993881155</v>
+      </c>
+      <c r="S29">
+        <v>0.1577831266738343</v>
+      </c>
+      <c r="T29">
+        <v>0.1577831266738343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.376235</v>
+      </c>
+      <c r="H30">
+        <v>22.128705</v>
+      </c>
+      <c r="I30">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J30">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N30">
+        <v>168.250912</v>
+      </c>
+      <c r="O30">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P30">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q30">
+        <v>413.68608862544</v>
+      </c>
+      <c r="R30">
+        <v>3723.17479762896</v>
+      </c>
+      <c r="S30">
+        <v>0.3702434425485953</v>
+      </c>
+      <c r="T30">
+        <v>0.3702434425485952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.376235</v>
+      </c>
+      <c r="H31">
+        <v>22.128705</v>
+      </c>
+      <c r="I31">
+        <v>0.7804315217139828</v>
+      </c>
+      <c r="J31">
+        <v>0.7804315217139829</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.254942</v>
+      </c>
+      <c r="N31">
+        <v>0.764826</v>
+      </c>
+      <c r="O31">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P31">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q31">
+        <v>1.88051210337</v>
+      </c>
+      <c r="R31">
+        <v>16.92460893033</v>
+      </c>
+      <c r="S31">
+        <v>0.001683032845555523</v>
+      </c>
+      <c r="T31">
+        <v>0.001683032845555523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.03503</v>
+      </c>
+      <c r="H32">
+        <v>0.10509</v>
+      </c>
+      <c r="I32">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J32">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.468881</v>
+      </c>
+      <c r="O32">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P32">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q32">
+        <v>0.005474967143333333</v>
+      </c>
+      <c r="R32">
+        <v>0.04927470429</v>
+      </c>
+      <c r="S32">
+        <v>4.900021389947037E-06</v>
+      </c>
+      <c r="T32">
+        <v>4.900021389947036E-06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.03503</v>
+      </c>
+      <c r="H33">
+        <v>0.10509</v>
+      </c>
+      <c r="I33">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J33">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N33">
+        <v>0.172156</v>
+      </c>
+      <c r="O33">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P33">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q33">
+        <v>0.002010208226666667</v>
+      </c>
+      <c r="R33">
+        <v>0.01809187404</v>
+      </c>
+      <c r="S33">
+        <v>1.799109118108267E-06</v>
+      </c>
+      <c r="T33">
+        <v>1.799109118108267E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.03503</v>
+      </c>
+      <c r="H34">
+        <v>0.10509</v>
+      </c>
+      <c r="I34">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J34">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>37.765109</v>
+      </c>
+      <c r="N34">
+        <v>113.295327</v>
+      </c>
+      <c r="O34">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P34">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q34">
+        <v>1.32291176827</v>
+      </c>
+      <c r="R34">
+        <v>11.90620591443</v>
+      </c>
+      <c r="S34">
+        <v>0.001183988102911067</v>
+      </c>
+      <c r="T34">
+        <v>0.001183988102911067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.03503</v>
+      </c>
+      <c r="H35">
+        <v>0.10509</v>
+      </c>
+      <c r="I35">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J35">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N35">
+        <v>71.701891</v>
+      </c>
+      <c r="O35">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P35">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q35">
+        <v>0.8372390805766667</v>
+      </c>
+      <c r="R35">
+        <v>7.53515172519</v>
+      </c>
+      <c r="S35">
+        <v>0.0007493176298456345</v>
+      </c>
+      <c r="T35">
+        <v>0.0007493176298456345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.03503</v>
+      </c>
+      <c r="H36">
+        <v>0.10509</v>
+      </c>
+      <c r="I36">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J36">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N36">
+        <v>168.250912</v>
+      </c>
+      <c r="O36">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P36">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q36">
+        <v>1.964609815786667</v>
+      </c>
+      <c r="R36">
+        <v>17.68148834208</v>
+      </c>
+      <c r="S36">
+        <v>0.001758299158375146</v>
+      </c>
+      <c r="T36">
+        <v>0.001758299158375145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.03503</v>
+      </c>
+      <c r="H37">
+        <v>0.10509</v>
+      </c>
+      <c r="I37">
+        <v>0.003706296803944128</v>
+      </c>
+      <c r="J37">
+        <v>0.003706296803944129</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.254942</v>
+      </c>
+      <c r="N37">
+        <v>0.764826</v>
+      </c>
+      <c r="O37">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P37">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q37">
+        <v>0.00893061826</v>
+      </c>
+      <c r="R37">
+        <v>0.08037556434</v>
+      </c>
+      <c r="S37">
+        <v>7.992782304225662E-06</v>
+      </c>
+      <c r="T37">
+        <v>7.992782304225661E-06</v>
       </c>
     </row>
   </sheetData>
